--- a/sample18-walking-ac-udp/network_data.xlsx
+++ b/sample18-walking-ac-udp/network_data.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osavk\OneDrive\Documents\CMU\Spring 2021\18-452 Wireless Networking and Applications\WirelessProject\sample18-walking-ac-udp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4291761cacc7c298/Documents/CMU/Spring 2021/18-452 Wireless Networking and Applications/WirelessProject/sample18-walking-ac-udp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CDAA6E48-9A2C-4AA1-9162-8B3D219B3A5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{CDAA6E48-9A2C-4AA1-9162-8B3D219B3A5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{34967232-A290-4B0E-A3B7-9E5A9812B464}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="16080"/>
+    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="network_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -208,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -858,6 +869,186 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>network_data!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>network_data!$C$2:$C$58</c:f>
@@ -1071,6 +1262,186 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>network_data!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>network_data!$D$2:$D$58</c:f>
@@ -1284,6 +1655,186 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>network_data!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>network_data!$E$2:$E$58</c:f>
@@ -2350,15 +2901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>390524</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2682,7 +3233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
